--- a/Excel/MonsterAction.xlsx
+++ b/Excel/MonsterAction.xlsx
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
